--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\CEP_DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410014B4-0417-4992-A359-F4EBBCAEBEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1BEAD-B5AC-4CB7-BA7F-443B8B4C809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annuelle" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -796,6 +796,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -803,7 +814,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -983,6 +994,9 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="11" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -990,47 +1004,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{533BAF52-D488-4122-83C5-B40F27F916B0}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1360,11 +1334,11 @@
   <sheetPr codeName="Feuil1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -1801,7 +1775,7 @@
         <v>14184.9</v>
       </c>
       <c r="C6" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D6" s="3">
         <v>2.5268149286677533E-2</v>
@@ -1864,6 +1838,17 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="83">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="85">
+        <v>15280.9</v>
+      </c>
+      <c r="C7" s="84">
+        <v>0.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,11 +1863,11 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -9883,8 +9868,8 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -28643,8 +28628,8 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\CEP_DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1BEAD-B5AC-4CB7-BA7F-443B8B4C809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7FD2B-3AB2-4E18-8E8A-5DDAC8A80C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annuelle" sheetId="1" r:id="rId1"/>
@@ -1336,9 +1336,9 @@
   </sheetPr>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -1848,6 +1848,9 @@
       </c>
       <c r="C7" s="84">
         <v>0.05</v>
+      </c>
+      <c r="D7" s="84">
+        <v>2.2000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -28628,8 +28631,8 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\CEP_DASHBOARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\TABLEAU_DE_BORD_CEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7FD2B-3AB2-4E18-8E8A-5DDAC8A80C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B66495-A7BC-4B06-890B-030E7F647875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,7 +814,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -997,6 +997,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1334,11 +1335,11 @@
   <sheetPr codeName="Feuil1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -1464,7 +1465,7 @@
         <v>2334.646054632</v>
       </c>
       <c r="F2" s="2">
-        <v>2090.298054632</v>
+        <v>301.7096733259998</v>
       </c>
       <c r="G2" s="2">
         <v>1788.5883813060002</v>
@@ -1544,7 +1545,7 @@
         <v>2376.7579639075002</v>
       </c>
       <c r="F3" s="2">
-        <v>2112.2308642305002</v>
+        <v>267.23172758100009</v>
       </c>
       <c r="G3" s="2">
         <v>1844.9991366495001</v>
@@ -1624,7 +1625,7 @@
         <v>2425.4511498260999</v>
       </c>
       <c r="F4" s="2">
-        <v>2169.0067194301</v>
+        <v>178.62383369977078</v>
       </c>
       <c r="G4" s="2">
         <v>1990.3828857303292</v>
@@ -1704,7 +1705,7 @@
         <v>2788.8282042332357</v>
       </c>
       <c r="F5" s="2">
-        <v>2564.5021841495</v>
+        <v>154.49131396599978</v>
       </c>
       <c r="G5" s="2">
         <v>2410.0108701835002</v>
@@ -1784,7 +1785,7 @@
         <v>2842.74</v>
       </c>
       <c r="F6" s="2">
-        <v>2518.2199999999998</v>
+        <v>150.01999999999998</v>
       </c>
       <c r="G6" s="2">
         <v>2368.1999999999998</v>
@@ -1852,6 +1853,9 @@
       <c r="D7" s="84">
         <v>2.2000000000000002E-2</v>
       </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26182,7 +26186,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\TABLEAU_DE_BORD_CEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B66495-A7BC-4B06-890B-030E7F647875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EAA3A2-D2C9-4FF0-8C10-DC800CFD4261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1337,9 +1337,9 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -1492,7 +1492,7 @@
         <v>1059.8936943069998</v>
       </c>
       <c r="O2" s="2">
-        <v>1059.8936943069998</v>
+        <v>1411</v>
       </c>
       <c r="P2" s="2">
         <v>-369.31653180455055</v>
@@ -1572,7 +1572,7 @@
         <v>1059.366221021</v>
       </c>
       <c r="O3" s="2">
-        <v>1059.366221021</v>
+        <v>1380</v>
       </c>
       <c r="P3" s="2">
         <v>-362.04102320601908</v>
@@ -1652,7 +1652,7 @@
         <v>1030.3850822589995</v>
       </c>
       <c r="O4" s="2">
-        <v>1030.3850822589995</v>
+        <v>1370</v>
       </c>
       <c r="P4" s="2">
         <v>-477.56726937468011</v>
@@ -1732,7 +1732,7 @@
         <v>1160.6121219575712</v>
       </c>
       <c r="O5" s="2">
-        <v>1160.6121219575712</v>
+        <v>1682</v>
       </c>
       <c r="P5" s="2">
         <v>-537.73292506832092</v>
@@ -1812,7 +1812,7 @@
         <v>1317.69</v>
       </c>
       <c r="O6" s="2">
-        <v>1317.69</v>
+        <v>2041</v>
       </c>
       <c r="P6" s="2">
         <v>-903</v>

--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\TABLEAU_DE_BORD_CEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EAA3A2-D2C9-4FF0-8C10-DC800CFD4261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D17C82-135D-4C5B-982E-830933D3B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annuelle" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="122">
   <si>
     <t>Taux de croissance PIB</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Annuelle</t>
   </si>
   <si>
-    <t>CEP</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
     <t>Cumul Importations de biens</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>SIKA FINANCE</t>
   </si>
   <si>
@@ -409,6 +403,15 @@
   </si>
   <si>
     <t>Cumul Autres dépenses courantes</t>
+  </si>
+  <si>
+    <t>Produits frais</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>Inflation sous jacente</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
       <name val="OpenSans-bold"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +645,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,13 +823,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -998,14 +1014,37 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{533BAF52-D488-4122-83C5-B40F27F916B0}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage 3" xfId="4" xr:uid="{FBAE6132-293A-4641-8AC1-85FDE68CC34D}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1337,7 +1376,7 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
@@ -1397,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>12</v>
@@ -1406,7 +1445,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N1" s="35" t="s">
         <v>14</v>
@@ -1418,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R1" s="35" t="s">
         <v>16</v>
@@ -1868,13 +1907,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ73"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P72" sqref="P72"/>
+      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1901,15 +1940,18 @@
     <col min="28" max="28" width="31.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="29" max="34" width="24.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="26" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.7265625" style="13"/>
+    <col min="37" max="37" width="14.08984375" style="13" customWidth="1"/>
+    <col min="38" max="38" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="82" customFormat="1" ht="15.5">
+    <row r="1" spans="1:39" s="82" customFormat="1" ht="15.5">
       <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>8</v>
@@ -1918,103 +1960,112 @@
         <v>9</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>56</v>
       </c>
       <c r="K1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>91</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="U1" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="V1" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="77" t="s">
+      <c r="W1" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="77" t="s">
+      <c r="X1" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="77" t="s">
+      <c r="Y1" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="77" t="s">
+      <c r="Z1" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="77" t="s">
+      <c r="AA1" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="77" t="s">
+      <c r="AB1" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC1" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" s="77" t="s">
+      <c r="AD1" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF1" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG1" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH1" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL1" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="AC1" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD1" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE1" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF1" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG1" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH1" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI1" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ1" s="77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AM1" s="87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="76">
         <v>42370</v>
       </c>
@@ -2121,8 +2172,17 @@
       <c r="AJ2" s="78">
         <v>230.640539072</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2" s="88">
+        <v>102.21</v>
+      </c>
+      <c r="AL2" s="88">
+        <v>94.09</v>
+      </c>
+      <c r="AM2" s="88">
+        <v>101.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="76">
         <v>42401</v>
       </c>
@@ -2231,8 +2291,17 @@
       <c r="AJ3" s="78">
         <v>488.86518478899995</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3" s="88">
+        <v>101.53</v>
+      </c>
+      <c r="AL3" s="88">
+        <v>91.85</v>
+      </c>
+      <c r="AM3" s="88">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="76">
         <v>42430</v>
       </c>
@@ -2341,8 +2410,17 @@
       <c r="AJ4" s="78">
         <v>744.04374309499997</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4" s="88">
+        <v>101.69</v>
+      </c>
+      <c r="AL4" s="88">
+        <v>91.17</v>
+      </c>
+      <c r="AM4" s="88">
+        <v>101.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="76">
         <v>42461</v>
       </c>
@@ -2451,8 +2529,17 @@
       <c r="AJ5" s="78">
         <v>970.84290535899993</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5" s="88">
+        <v>102.27</v>
+      </c>
+      <c r="AL5" s="88">
+        <v>91.08</v>
+      </c>
+      <c r="AM5" s="88">
+        <v>100.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="76">
         <v>42491</v>
       </c>
@@ -2561,8 +2648,17 @@
       <c r="AJ6" s="78">
         <v>1219.1561346449998</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6" s="88">
+        <v>100.45</v>
+      </c>
+      <c r="AL6" s="88">
+        <v>91.54</v>
+      </c>
+      <c r="AM6" s="88">
+        <v>101.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="76">
         <v>42522</v>
       </c>
@@ -2671,8 +2767,17 @@
       <c r="AJ7" s="78">
         <v>1524.7724711429998</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7" s="88">
+        <v>101.05</v>
+      </c>
+      <c r="AL7" s="88">
+        <v>91.35</v>
+      </c>
+      <c r="AM7" s="88">
+        <v>101.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="76">
         <v>42552</v>
       </c>
@@ -2781,8 +2886,17 @@
       <c r="AJ8" s="78">
         <v>1831.7012895219998</v>
       </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8" s="88">
+        <v>104.93</v>
+      </c>
+      <c r="AL8" s="88">
+        <v>91.23</v>
+      </c>
+      <c r="AM8" s="88">
+        <v>101.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="76">
         <v>42583</v>
       </c>
@@ -2891,8 +3005,17 @@
       <c r="AJ9" s="78">
         <v>2158.0574853179996</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9" s="88">
+        <v>110.45</v>
+      </c>
+      <c r="AL9" s="88">
+        <v>91.32</v>
+      </c>
+      <c r="AM9" s="88">
+        <v>101.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="76">
         <v>42614</v>
       </c>
@@ -3001,8 +3124,17 @@
       <c r="AJ10" s="78">
         <v>2415.0410509149997</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10" s="88">
+        <v>115.91</v>
+      </c>
+      <c r="AL10" s="88">
+        <v>91.33</v>
+      </c>
+      <c r="AM10" s="88">
+        <v>102.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="76">
         <v>42644</v>
       </c>
@@ -3111,8 +3243,17 @@
       <c r="AJ11" s="78">
         <v>2719.8591707529995</v>
       </c>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AK11" s="88">
+        <v>118.96</v>
+      </c>
+      <c r="AL11" s="88">
+        <v>91.44</v>
+      </c>
+      <c r="AM11" s="88">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="76">
         <v>42675</v>
       </c>
@@ -3221,8 +3362,17 @@
       <c r="AJ12" s="78">
         <v>3025.2253945139996</v>
       </c>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="AK12" s="88">
+        <v>116.65</v>
+      </c>
+      <c r="AL12" s="88">
+        <v>91.44</v>
+      </c>
+      <c r="AM12" s="88">
+        <v>101.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="76">
         <v>42705</v>
       </c>
@@ -3331,8 +3481,17 @@
       <c r="AJ13" s="78">
         <v>3218.5148002489996</v>
       </c>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13" s="88">
+        <v>117.62</v>
+      </c>
+      <c r="AL13" s="88">
+        <v>91.51</v>
+      </c>
+      <c r="AM13" s="88">
+        <v>102.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="76">
         <v>42736</v>
       </c>
@@ -3441,8 +3600,17 @@
       <c r="AJ14" s="78">
         <v>290.64239773899999</v>
       </c>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AK14" s="88">
+        <v>112.46</v>
+      </c>
+      <c r="AL14" s="88">
+        <v>91.3</v>
+      </c>
+      <c r="AM14" s="88">
+        <v>102.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" s="76">
         <v>42767</v>
       </c>
@@ -3551,8 +3719,17 @@
       <c r="AJ15" s="78">
         <v>546.06875682899999</v>
       </c>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AK15" s="88">
+        <v>112.31</v>
+      </c>
+      <c r="AL15" s="88">
+        <v>88.69</v>
+      </c>
+      <c r="AM15" s="88">
+        <v>102.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="76">
         <v>42795</v>
       </c>
@@ -3661,8 +3838,17 @@
       <c r="AJ16" s="78">
         <v>902.66699343799996</v>
       </c>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AK16" s="88">
+        <v>115.08</v>
+      </c>
+      <c r="AL16" s="88">
+        <v>89.1</v>
+      </c>
+      <c r="AM16" s="88">
+        <v>102.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="76">
         <v>42826</v>
       </c>
@@ -3771,8 +3957,17 @@
       <c r="AJ17" s="78">
         <v>1204.531294767</v>
       </c>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AK17" s="88">
+        <v>110.48</v>
+      </c>
+      <c r="AL17" s="88">
+        <v>88.86</v>
+      </c>
+      <c r="AM17" s="88">
+        <v>102.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="76">
         <v>42856</v>
       </c>
@@ -3881,8 +4076,17 @@
       <c r="AJ18" s="78">
         <v>1541.288706516</v>
       </c>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="AK18" s="88">
+        <v>109.01</v>
+      </c>
+      <c r="AL18" s="88">
+        <v>88.86</v>
+      </c>
+      <c r="AM18" s="88">
+        <v>102.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="76">
         <v>42887</v>
       </c>
@@ -3991,8 +4195,17 @@
       <c r="AJ19" s="78">
         <v>1896.9013015580001</v>
       </c>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="AK19" s="88">
+        <v>108.87</v>
+      </c>
+      <c r="AL19" s="88">
+        <v>88.96</v>
+      </c>
+      <c r="AM19" s="88">
+        <v>102.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="76">
         <v>42917</v>
       </c>
@@ -4101,8 +4314,17 @@
       <c r="AJ20" s="78">
         <v>2190.101958143</v>
       </c>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="AK20" s="88">
+        <v>114.77</v>
+      </c>
+      <c r="AL20" s="88">
+        <v>89.05</v>
+      </c>
+      <c r="AM20" s="88">
+        <v>102.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
       <c r="A21" s="76">
         <v>42948</v>
       </c>
@@ -4211,8 +4433,17 @@
       <c r="AJ21" s="78">
         <v>2566.1296895569999</v>
       </c>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AK21" s="88">
+        <v>119.66</v>
+      </c>
+      <c r="AL21" s="88">
+        <v>88.88</v>
+      </c>
+      <c r="AM21" s="88">
+        <v>102.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" s="76">
         <v>42979</v>
       </c>
@@ -4321,8 +4552,17 @@
       <c r="AJ22" s="78">
         <v>2889.6268156679998</v>
       </c>
-    </row>
-    <row r="23" spans="1:36">
+      <c r="AK22" s="88">
+        <v>119.51</v>
+      </c>
+      <c r="AL22" s="88">
+        <v>90.02</v>
+      </c>
+      <c r="AM22" s="88">
+        <v>102.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="76">
         <v>43009</v>
       </c>
@@ -4431,8 +4671,17 @@
       <c r="AJ23" s="78">
         <v>3264.3704242559998</v>
       </c>
-    </row>
-    <row r="24" spans="1:36">
+      <c r="AK23" s="88">
+        <v>119.22</v>
+      </c>
+      <c r="AL23" s="88">
+        <v>89.79</v>
+      </c>
+      <c r="AM23" s="88">
+        <v>102.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="76">
         <v>43040</v>
       </c>
@@ -4541,8 +4790,17 @@
       <c r="AJ24" s="78">
         <v>3585.3092371889998</v>
       </c>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="AK24" s="88">
+        <v>115.8</v>
+      </c>
+      <c r="AL24" s="88">
+        <v>89.71</v>
+      </c>
+      <c r="AM24" s="88">
+        <v>102.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" s="76">
         <v>43070</v>
       </c>
@@ -4651,8 +4909,17 @@
       <c r="AJ25" s="78">
         <v>3908.7059214749997</v>
       </c>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="AK25" s="88">
+        <v>114.93</v>
+      </c>
+      <c r="AL25" s="88">
+        <v>89.6</v>
+      </c>
+      <c r="AM25" s="88">
+        <v>102.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
       <c r="A26" s="76">
         <v>43101</v>
       </c>
@@ -4761,8 +5028,17 @@
       <c r="AJ26" s="78">
         <v>409.51411870200002</v>
       </c>
-    </row>
-    <row r="27" spans="1:36">
+      <c r="AK26" s="88">
+        <v>113.11</v>
+      </c>
+      <c r="AL26" s="88">
+        <v>89.61</v>
+      </c>
+      <c r="AM26" s="88">
+        <v>102.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" s="76">
         <v>43132</v>
       </c>
@@ -4871,8 +5147,17 @@
       <c r="AJ27" s="78">
         <v>736.47323487800008</v>
       </c>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AK27" s="88">
+        <v>114.44</v>
+      </c>
+      <c r="AL27" s="88">
+        <v>88.99</v>
+      </c>
+      <c r="AM27" s="88">
+        <v>102.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="76">
         <v>43160</v>
       </c>
@@ -4981,8 +5266,17 @@
       <c r="AJ28" s="78">
         <v>1078.0734933250001</v>
       </c>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="AK28" s="88">
+        <v>110.95</v>
+      </c>
+      <c r="AL28" s="88">
+        <v>88.95</v>
+      </c>
+      <c r="AM28" s="88">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" s="76">
         <v>43191</v>
       </c>
@@ -5091,8 +5385,17 @@
       <c r="AJ29" s="78">
         <v>1401.3864137360001</v>
       </c>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="AK29" s="88">
+        <v>112.41</v>
+      </c>
+      <c r="AL29" s="88">
+        <v>89.22</v>
+      </c>
+      <c r="AM29" s="88">
+        <v>101.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" s="76">
         <v>43221</v>
       </c>
@@ -5201,8 +5504,17 @@
       <c r="AJ30" s="78">
         <v>1796.0475110490001</v>
       </c>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="AK30" s="88">
+        <v>106.75</v>
+      </c>
+      <c r="AL30" s="88">
+        <v>89.68</v>
+      </c>
+      <c r="AM30" s="88">
+        <v>102.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="76">
         <v>43252</v>
       </c>
@@ -5311,8 +5623,17 @@
       <c r="AJ31" s="78">
         <v>2196.0696208190002</v>
       </c>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="AK31" s="88">
+        <v>104.32</v>
+      </c>
+      <c r="AL31" s="88">
+        <v>89.57</v>
+      </c>
+      <c r="AM31" s="88">
+        <v>102.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" s="76">
         <v>43282</v>
       </c>
@@ -5421,8 +5742,17 @@
       <c r="AJ32" s="78">
         <v>2618.6172432480002</v>
       </c>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="AK32" s="88">
+        <v>109.34</v>
+      </c>
+      <c r="AL32" s="88">
+        <v>89.3</v>
+      </c>
+      <c r="AM32" s="88">
+        <v>102.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="76">
         <v>43313</v>
       </c>
@@ -5531,8 +5861,17 @@
       <c r="AJ33" s="78">
         <v>2914.0424525050003</v>
       </c>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AK33" s="88">
+        <v>117.6</v>
+      </c>
+      <c r="AL33" s="88">
+        <v>89.51</v>
+      </c>
+      <c r="AM33" s="88">
+        <v>102.86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="76">
         <v>43344</v>
       </c>
@@ -5641,8 +5980,17 @@
       <c r="AJ34" s="78">
         <v>3314.1270025930003</v>
       </c>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AK34" s="88">
+        <v>121.97</v>
+      </c>
+      <c r="AL34" s="88">
+        <v>89.71</v>
+      </c>
+      <c r="AM34" s="88">
+        <v>102.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="76">
         <v>43374</v>
       </c>
@@ -5751,8 +6099,17 @@
       <c r="AJ35" s="78">
         <v>3701.9425167210002</v>
       </c>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AK35" s="88">
+        <v>119.09</v>
+      </c>
+      <c r="AL35" s="88">
+        <v>89.61</v>
+      </c>
+      <c r="AM35" s="88">
+        <v>102.89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="76">
         <v>43405</v>
       </c>
@@ -5861,8 +6218,17 @@
       <c r="AJ36" s="78">
         <v>4048.2140093510002</v>
       </c>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AK36" s="88">
+        <v>117.48</v>
+      </c>
+      <c r="AL36" s="88">
+        <v>89.71</v>
+      </c>
+      <c r="AM36" s="88">
+        <v>102.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="76">
         <v>43435</v>
       </c>
@@ -5971,8 +6337,17 @@
       <c r="AJ37" s="78">
         <v>4487.9985332510005</v>
       </c>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AK37" s="88">
+        <v>118.4</v>
+      </c>
+      <c r="AL37" s="88">
+        <v>89.45</v>
+      </c>
+      <c r="AM37" s="88">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
       <c r="A38" s="76">
         <v>43466</v>
       </c>
@@ -6081,8 +6456,17 @@
       <c r="AJ38" s="78">
         <v>354.559859367</v>
       </c>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AK38" s="88">
+        <v>114.31</v>
+      </c>
+      <c r="AL38" s="88">
+        <v>89.73</v>
+      </c>
+      <c r="AM38" s="88">
+        <v>102.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
       <c r="A39" s="76">
         <v>43497</v>
       </c>
@@ -6191,8 +6575,17 @@
       <c r="AJ39" s="78">
         <v>749.72398771000007</v>
       </c>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AK39" s="88">
+        <v>114.04</v>
+      </c>
+      <c r="AL39" s="88">
+        <v>89.75</v>
+      </c>
+      <c r="AM39" s="88">
+        <v>102.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
       <c r="A40" s="76">
         <v>43525</v>
       </c>
@@ -6301,8 +6694,17 @@
       <c r="AJ40" s="78">
         <v>1083.3216145430001</v>
       </c>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AK40" s="88">
+        <v>112.34</v>
+      </c>
+      <c r="AL40" s="88">
+        <v>89.65</v>
+      </c>
+      <c r="AM40" s="88">
+        <v>102.56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
       <c r="A41" s="76">
         <v>43556</v>
       </c>
@@ -6411,8 +6813,17 @@
       <c r="AJ41" s="78">
         <v>1464.480253704</v>
       </c>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AK41" s="88">
+        <v>112.96</v>
+      </c>
+      <c r="AL41" s="88">
+        <v>89.35</v>
+      </c>
+      <c r="AM41" s="88">
+        <v>102.84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39">
       <c r="A42" s="76">
         <v>43586</v>
       </c>
@@ -6521,8 +6932,17 @@
       <c r="AJ42" s="78">
         <v>1930.3545494140001</v>
       </c>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AK42" s="88">
+        <v>109.95</v>
+      </c>
+      <c r="AL42" s="88">
+        <v>89.51</v>
+      </c>
+      <c r="AM42" s="88">
+        <v>103.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
       <c r="A43" s="76">
         <v>43617</v>
       </c>
@@ -6631,8 +7051,17 @@
       <c r="AJ43" s="78">
         <v>2263.658074212</v>
       </c>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AK43" s="88">
+        <v>110.38</v>
+      </c>
+      <c r="AL43" s="88">
+        <v>89.53</v>
+      </c>
+      <c r="AM43" s="88">
+        <v>103.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
       <c r="A44" s="76">
         <v>43647</v>
       </c>
@@ -6741,8 +7170,17 @@
       <c r="AJ44" s="78">
         <v>2781.5862461259999</v>
       </c>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AK44" s="88">
+        <v>110.83</v>
+      </c>
+      <c r="AL44" s="88">
+        <v>90.62</v>
+      </c>
+      <c r="AM44" s="88">
+        <v>103.76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
       <c r="A45" s="76">
         <v>43678</v>
       </c>
@@ -6851,8 +7289,17 @@
       <c r="AJ45" s="78">
         <v>3140.0083838229998</v>
       </c>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AK45" s="88">
+        <v>115.4</v>
+      </c>
+      <c r="AL45" s="88">
+        <v>90.62</v>
+      </c>
+      <c r="AM45" s="88">
+        <v>104.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
       <c r="A46" s="76">
         <v>43709</v>
       </c>
@@ -6961,8 +7408,17 @@
       <c r="AJ46" s="78">
         <v>3512.0973524209999</v>
       </c>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AK46" s="88">
+        <v>117.81</v>
+      </c>
+      <c r="AL46" s="88">
+        <v>90.59</v>
+      </c>
+      <c r="AM46" s="88">
+        <v>103.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
       <c r="A47" s="76">
         <v>43739</v>
       </c>
@@ -7071,8 +7527,17 @@
       <c r="AJ47" s="78">
         <v>3938.5731894149999</v>
       </c>
-    </row>
-    <row r="48" spans="1:36">
+      <c r="AK47" s="88">
+        <v>121.13</v>
+      </c>
+      <c r="AL47" s="88">
+        <v>90.5</v>
+      </c>
+      <c r="AM47" s="88">
+        <v>104.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
       <c r="A48" s="76">
         <v>43770</v>
       </c>
@@ -7181,8 +7646,17 @@
       <c r="AJ48" s="78">
         <v>4328.9116312149999</v>
       </c>
-    </row>
-    <row r="49" spans="1:36">
+      <c r="AK48" s="88">
+        <v>120.24</v>
+      </c>
+      <c r="AL48" s="88">
+        <v>90.61</v>
+      </c>
+      <c r="AM48" s="88">
+        <v>103.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39">
       <c r="A49" s="76">
         <v>43800</v>
       </c>
@@ -7291,8 +7765,17 @@
       <c r="AJ49" s="78">
         <v>4773.9321413850003</v>
       </c>
-    </row>
-    <row r="50" spans="1:36">
+      <c r="AK49" s="88">
+        <v>116.89</v>
+      </c>
+      <c r="AL49" s="88">
+        <v>91.9</v>
+      </c>
+      <c r="AM49" s="88">
+        <v>103.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
       <c r="A50" s="76">
         <v>43831</v>
       </c>
@@ -7401,8 +7884,17 @@
       <c r="AJ50" s="78">
         <v>405.97898448000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:36">
+      <c r="AK50" s="88">
+        <v>118.38</v>
+      </c>
+      <c r="AL50" s="88">
+        <v>91.62</v>
+      </c>
+      <c r="AM50" s="88">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39">
       <c r="A51" s="76">
         <v>43862</v>
       </c>
@@ -7511,8 +8003,17 @@
       <c r="AJ51" s="78">
         <v>730.75907249600004</v>
       </c>
-    </row>
-    <row r="52" spans="1:36">
+      <c r="AK51" s="88">
+        <v>115.67</v>
+      </c>
+      <c r="AL51" s="88">
+        <v>91.89</v>
+      </c>
+      <c r="AM51" s="88">
+        <v>104.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39">
       <c r="A52" s="76">
         <v>43891</v>
       </c>
@@ -7621,8 +8122,17 @@
       <c r="AJ52" s="78">
         <v>1262.30891421</v>
       </c>
-    </row>
-    <row r="53" spans="1:36">
+      <c r="AK52" s="88">
+        <v>115.7</v>
+      </c>
+      <c r="AL52" s="88">
+        <v>91.82</v>
+      </c>
+      <c r="AM52" s="88">
+        <v>104.39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39">
       <c r="A53" s="76">
         <v>43922</v>
       </c>
@@ -7731,8 +8241,17 @@
       <c r="AJ53" s="78">
         <v>1686.5265942850001</v>
       </c>
-    </row>
-    <row r="54" spans="1:36">
+      <c r="AK53" s="88">
+        <v>119.46</v>
+      </c>
+      <c r="AL53" s="88">
+        <v>91.83</v>
+      </c>
+      <c r="AM53" s="88">
+        <v>104.84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39">
       <c r="A54" s="76">
         <v>43952</v>
       </c>
@@ -7841,8 +8360,17 @@
       <c r="AJ54" s="78">
         <v>1991.4179249880001</v>
       </c>
-    </row>
-    <row r="55" spans="1:36">
+      <c r="AK54" s="88">
+        <v>115.37</v>
+      </c>
+      <c r="AL54" s="88">
+        <v>91.89</v>
+      </c>
+      <c r="AM54" s="88">
+        <v>105.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
       <c r="A55" s="76">
         <v>43983</v>
       </c>
@@ -7951,8 +8479,17 @@
       <c r="AJ55" s="78">
         <v>2328.3384196880002</v>
       </c>
-    </row>
-    <row r="56" spans="1:36">
+      <c r="AK55" s="88">
+        <v>114.19</v>
+      </c>
+      <c r="AL55" s="88">
+        <v>91.73</v>
+      </c>
+      <c r="AM55" s="88">
+        <v>105.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
       <c r="A56" s="76">
         <v>44013</v>
       </c>
@@ -8061,8 +8598,17 @@
       <c r="AJ56" s="78">
         <v>2679.077664983</v>
       </c>
-    </row>
-    <row r="57" spans="1:36">
+      <c r="AK56" s="88">
+        <v>117.68</v>
+      </c>
+      <c r="AL56" s="88">
+        <v>91.88</v>
+      </c>
+      <c r="AM56" s="88">
+        <v>105.41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39">
       <c r="A57" s="76">
         <v>44044</v>
       </c>
@@ -8171,8 +8717,17 @@
       <c r="AJ57" s="78">
         <v>3013.8414546489998</v>
       </c>
-    </row>
-    <row r="58" spans="1:36">
+      <c r="AK57" s="88">
+        <v>127.98</v>
+      </c>
+      <c r="AL57" s="88">
+        <v>92.04</v>
+      </c>
+      <c r="AM57" s="88">
+        <v>105.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
       <c r="A58" s="76">
         <v>44075</v>
       </c>
@@ -8281,8 +8836,17 @@
       <c r="AJ58" s="78">
         <v>3408.5782229849997</v>
       </c>
-    </row>
-    <row r="59" spans="1:36">
+      <c r="AK58" s="88">
+        <v>129.78</v>
+      </c>
+      <c r="AL58" s="88">
+        <v>92.04</v>
+      </c>
+      <c r="AM58" s="88">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
       <c r="A59" s="76">
         <v>44105</v>
       </c>
@@ -8391,8 +8955,17 @@
       <c r="AJ59" s="78">
         <v>3722.4147286399998</v>
       </c>
-    </row>
-    <row r="60" spans="1:36">
+      <c r="AK59" s="88">
+        <v>131.25</v>
+      </c>
+      <c r="AL59" s="88">
+        <v>92.11</v>
+      </c>
+      <c r="AM59" s="88">
+        <v>105.29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39">
       <c r="A60" s="76">
         <v>44136</v>
       </c>
@@ -8501,8 +9074,17 @@
       <c r="AJ60" s="78">
         <v>4123.747431363</v>
       </c>
-    </row>
-    <row r="61" spans="1:36">
+      <c r="AK60" s="88">
+        <v>127.71</v>
+      </c>
+      <c r="AL60" s="88">
+        <v>92.18</v>
+      </c>
+      <c r="AM60" s="88">
+        <v>105.26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39">
       <c r="A61" s="76">
         <v>44166</v>
       </c>
@@ -8611,8 +9193,17 @@
       <c r="AJ61" s="78">
         <v>4494.6657408700003</v>
       </c>
-    </row>
-    <row r="62" spans="1:36">
+      <c r="AK61" s="88">
+        <v>124.68</v>
+      </c>
+      <c r="AL61" s="88">
+        <v>92.46</v>
+      </c>
+      <c r="AM61" s="88">
+        <v>105.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39">
       <c r="A62" s="76">
         <v>44197</v>
       </c>
@@ -8721,8 +9312,17 @@
       <c r="AJ62" s="78">
         <v>325.97399999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:36">
+      <c r="AK62" s="88">
+        <v>117.2</v>
+      </c>
+      <c r="AL62" s="88">
+        <v>92.09</v>
+      </c>
+      <c r="AM62" s="88">
+        <v>105.54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39">
       <c r="A63" s="76">
         <v>44228</v>
       </c>
@@ -8831,8 +9431,17 @@
       <c r="AJ63" s="78">
         <v>619.91800000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:36">
+      <c r="AK63" s="88">
+        <v>119.485008716583</v>
+      </c>
+      <c r="AL63" s="88">
+        <v>91.912448406219397</v>
+      </c>
+      <c r="AM63" s="88">
+        <v>105.54577112197801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39">
       <c r="A64" s="76">
         <v>44256</v>
       </c>
@@ -8941,8 +9550,17 @@
       <c r="AJ64" s="78">
         <v>1032.277</v>
       </c>
-    </row>
-    <row r="65" spans="1:36">
+      <c r="AK64" s="88">
+        <v>116.76434278488099</v>
+      </c>
+      <c r="AL64" s="88">
+        <v>92.676562070846501</v>
+      </c>
+      <c r="AM64" s="88">
+        <v>105.868637561798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39">
       <c r="A65" s="76">
         <v>44287</v>
       </c>
@@ -9051,8 +9669,17 @@
       <c r="AJ65" s="78">
         <v>1507.7850000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:36">
+      <c r="AK65" s="88">
+        <v>116.422343254089</v>
+      </c>
+      <c r="AL65" s="88">
+        <v>92.680263519287095</v>
+      </c>
+      <c r="AM65" s="88">
+        <v>106.013464927673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39">
       <c r="A66" s="76">
         <v>44317</v>
       </c>
@@ -9161,8 +9788,17 @@
       <c r="AJ66" s="78">
         <v>1926.8180000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:36">
+      <c r="AK66" s="88">
+        <v>116.103911399841</v>
+      </c>
+      <c r="AL66" s="88">
+        <v>92.463624477386404</v>
+      </c>
+      <c r="AM66" s="88">
+        <v>106.67787790298399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39">
       <c r="A67" s="76">
         <v>44348</v>
       </c>
@@ -9271,8 +9907,17 @@
       <c r="AJ67" s="78">
         <v>2420.0800000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:36">
+      <c r="AK67" s="88">
+        <v>115.38000106811501</v>
+      </c>
+      <c r="AL67" s="88">
+        <v>92.439544200897203</v>
+      </c>
+      <c r="AM67" s="88">
+        <v>107.664930820465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39">
       <c r="A68" s="76">
         <v>44378</v>
       </c>
@@ -9381,8 +10026,17 @@
       <c r="AJ68" s="78">
         <v>2840.0040000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:36">
+      <c r="AK68" s="88">
+        <v>123.48496913909899</v>
+      </c>
+      <c r="AL68" s="88">
+        <v>92.460525035858097</v>
+      </c>
+      <c r="AM68" s="88">
+        <v>107.86104202270501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39">
       <c r="A69" s="76">
         <v>44409</v>
       </c>
@@ -9491,8 +10145,17 @@
       <c r="AJ69" s="78">
         <v>3297.7280000000005</v>
       </c>
-    </row>
-    <row r="70" spans="1:36">
+      <c r="AK69" s="88">
+        <v>130.03883361816401</v>
+      </c>
+      <c r="AL69" s="88">
+        <v>92.542684078216496</v>
+      </c>
+      <c r="AM69" s="88">
+        <v>108.487713336944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39">
       <c r="A70" s="76">
         <v>44440</v>
       </c>
@@ -9601,8 +10264,17 @@
       <c r="AJ70" s="78">
         <v>3810.4970000000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:36">
+      <c r="AK70" s="88">
+        <v>131.31831884384101</v>
+      </c>
+      <c r="AL70" s="88">
+        <v>93.856972455978394</v>
+      </c>
+      <c r="AM70" s="88">
+        <v>109.400641918182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39">
       <c r="A71" s="76">
         <v>44470</v>
       </c>
@@ -9711,8 +10383,17 @@
       <c r="AJ71" s="78">
         <v>4315.384</v>
       </c>
-    </row>
-    <row r="72" spans="1:36">
+      <c r="AK71" s="88">
+        <v>132.175278663635</v>
+      </c>
+      <c r="AL71" s="88">
+        <v>94.818806648254395</v>
+      </c>
+      <c r="AM71" s="88">
+        <v>109.34983491897501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39">
       <c r="A72" s="76">
         <v>44501</v>
       </c>
@@ -9821,8 +10502,17 @@
       <c r="AJ72" s="78">
         <v>4849.5770000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:36">
+      <c r="AK72" s="88">
+        <v>127.080333232879</v>
+      </c>
+      <c r="AL72" s="88">
+        <v>95.046067237854004</v>
+      </c>
+      <c r="AM72" s="88">
+        <v>109.778368473052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39">
       <c r="A73" s="76">
         <v>44531</v>
       </c>
@@ -9861,9 +10551,47 @@
       <c r="AH73" s="12"/>
       <c r="AI73" s="12"/>
       <c r="AJ73"/>
+      <c r="AK73" s="88">
+        <v>126.39287710189799</v>
+      </c>
+      <c r="AL73" s="88">
+        <v>95.036834478378296</v>
+      </c>
+      <c r="AM73" s="88">
+        <v>110.100483894348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39">
+      <c r="A74" s="76">
+        <v>44562</v>
+      </c>
+      <c r="AK74" s="88">
+        <v>127.48848199844301</v>
+      </c>
+      <c r="AL74" s="88">
+        <v>94.915670156478797</v>
+      </c>
+      <c r="AM74" s="88">
+        <v>110.03074645996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39">
+      <c r="A75" s="76">
+        <v>44593</v>
+      </c>
+      <c r="AK75" s="88">
+        <v>131.07246160507199</v>
+      </c>
+      <c r="AL75" s="88">
+        <v>95.087307691574097</v>
+      </c>
+      <c r="AM75" s="88">
+        <v>111.26333475112899</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26662,16 +27390,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="E1" s="56" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -27743,19 +28471,19 @@
         <v>46</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" ht="15" thickBot="1">
@@ -28633,10 +29361,11 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28659,7 +29388,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>52</v>
@@ -28682,7 +29411,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>54</v>
@@ -28701,7 +29430,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>54</v>
@@ -28734,11 +29463,11 @@
         <v>47</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="16"/>
@@ -28749,11 +29478,11 @@
         <v>47</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="16"/>
@@ -28764,11 +29493,11 @@
         <v>47</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="16"/>
@@ -28779,11 +29508,11 @@
         <v>47</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="16"/>
@@ -28794,11 +29523,11 @@
         <v>47</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="16"/>
@@ -28813,7 +29542,7 @@
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="15"/>
@@ -28828,7 +29557,7 @@
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E11" s="52"/>
       <c r="F11" s="15"/>
@@ -28843,7 +29572,7 @@
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="15"/>
@@ -28858,7 +29587,7 @@
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E13" s="52"/>
       <c r="F13" s="15"/>
@@ -28873,7 +29602,7 @@
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="15"/>
@@ -28888,7 +29617,7 @@
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="15"/>
@@ -28903,7 +29632,7 @@
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="15"/>
@@ -28918,7 +29647,7 @@
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="15"/>
@@ -28933,7 +29662,7 @@
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="15"/>
@@ -28948,7 +29677,7 @@
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="15"/>
@@ -28963,7 +29692,7 @@
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="15"/>
@@ -28978,7 +29707,7 @@
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="15"/>
@@ -28993,7 +29722,7 @@
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="15"/>
@@ -29004,11 +29733,11 @@
         <v>57</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="15"/>
@@ -29023,7 +29752,7 @@
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="15"/>
@@ -29038,7 +29767,7 @@
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="15"/>
@@ -29053,7 +29782,7 @@
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="15"/>
@@ -29068,7 +29797,7 @@
       </c>
       <c r="C27" s="54"/>
       <c r="D27" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="15"/>
@@ -29083,7 +29812,7 @@
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="15"/>
@@ -29098,7 +29827,7 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="15"/>
@@ -29113,7 +29842,7 @@
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="15"/>
@@ -29128,7 +29857,7 @@
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="15"/>
@@ -29143,7 +29872,7 @@
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="15"/>
@@ -29151,218 +29880,218 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E45" s="51"/>
       <c r="F45" s="15"/>
@@ -29370,14 +30099,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="51"/>
       <c r="F46" s="15"/>
@@ -29385,31 +30114,31 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" s="51"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="51"/>
       <c r="F48" s="15"/>
@@ -29417,99 +30146,99 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="51"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E54" s="51"/>
       <c r="F54" s="15"/>
@@ -29517,14 +30246,14 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E55" s="51"/>
       <c r="F55" s="15"/>
@@ -29532,14 +30261,14 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E56" s="51"/>
       <c r="F56" s="15"/>
@@ -29547,14 +30276,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E57" s="51"/>
       <c r="F57" s="15"/>
@@ -29562,14 +30291,14 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E58" s="51"/>
       <c r="F58" s="15"/>
@@ -29577,14 +30306,14 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E59" s="51"/>
       <c r="F59" s="15"/>
@@ -29592,14 +30321,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E60" s="51"/>
       <c r="F60" s="15"/>
@@ -29607,14 +30336,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E61" s="51"/>
       <c r="F61" s="15"/>
@@ -29622,14 +30351,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E62" s="51"/>
       <c r="F62" s="15"/>
@@ -29637,14 +30366,14 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E63" s="51"/>
       <c r="F63" s="15"/>
@@ -29652,14 +30381,14 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E64" s="51"/>
       <c r="F64" s="15"/>
@@ -29667,14 +30396,14 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E65" s="51"/>
       <c r="F65" s="15"/>
@@ -29682,14 +30411,14 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E66" s="51"/>
       <c r="F66" s="15"/>
@@ -29697,14 +30426,14 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E67" s="51"/>
       <c r="F67" s="15"/>
@@ -29712,14 +30441,14 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E68" s="51"/>
       <c r="F68" s="15"/>
@@ -29727,14 +30456,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E69" s="51"/>
       <c r="F69" s="15"/>
@@ -29742,14 +30471,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E70" s="51"/>
       <c r="F70" s="15"/>
@@ -29757,14 +30486,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E71" s="51"/>
       <c r="F71" s="15"/>
@@ -29772,14 +30501,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E72" s="51"/>
       <c r="F72" s="15"/>
@@ -29787,14 +30516,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E73" s="51"/>
       <c r="F73" s="15"/>
@@ -29802,14 +30531,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E74" s="51"/>
       <c r="F74" s="15"/>
@@ -29817,14 +30546,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E75" s="51"/>
       <c r="F75" s="15"/>
@@ -29832,14 +30561,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E76" s="51"/>
       <c r="F76" s="15"/>
@@ -29847,14 +30576,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E77" s="51"/>
       <c r="F77" s="15"/>
@@ -29862,14 +30591,14 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E78" s="51"/>
       <c r="F78" s="15"/>
@@ -29877,14 +30606,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E79" s="51"/>
       <c r="F79" s="15"/>
@@ -29892,14 +30621,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E80" s="51"/>
       <c r="F80" s="15"/>
@@ -29907,14 +30636,14 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E81" s="51"/>
       <c r="F81" s="15"/>
@@ -29922,14 +30651,14 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E82" s="51"/>
       <c r="F82" s="15"/>
@@ -29937,14 +30666,14 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E83" s="51"/>
       <c r="F83" s="15"/>
@@ -29952,14 +30681,14 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E84" s="51"/>
       <c r="F84" s="15"/>
@@ -29967,14 +30696,14 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E85" s="51"/>
       <c r="F85" s="15"/>
@@ -29982,14 +30711,14 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E86" s="51"/>
       <c r="F86" s="15"/>
@@ -29997,14 +30726,14 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E87" s="51"/>
       <c r="F87" s="15"/>
@@ -30012,33 +30741,84 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="53" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E88" s="51"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="51"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="17"/>
+      <c r="D90" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="51"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="17"/>
+      <c r="D91" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="51"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B4 B10:B61 B63:B79 B81:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  <conditionalFormatting sqref="B1:B4 B10:B61 B63:B79 B81:B88 B92:B1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B88 B92:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
+  <conditionalFormatting sqref="B89:B91">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B89:B91">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\TABLEAU_DE_BORD_CEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D17C82-135D-4C5B-982E-830933D3B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C01D98-8599-44AE-9FA4-14061DA595FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="131">
   <si>
     <t>Taux de croissance PIB</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Nom variable</t>
   </si>
   <si>
-    <t>Nom dans la Source</t>
-  </si>
-  <si>
     <t>https://www.ansd.sn/index.php?option=com_ansd&amp;view=titrepublication&amp;id=30</t>
   </si>
   <si>
@@ -241,12 +238,6 @@
   </si>
   <si>
     <t>MFR</t>
-  </si>
-  <si>
-    <t>Rendement</t>
-  </si>
-  <si>
-    <t>Taux d'intérêt</t>
   </si>
   <si>
     <t>BCEAO</t>
@@ -412,6 +403,42 @@
   </si>
   <si>
     <t>Inflation sous jacente</t>
+  </si>
+  <si>
+    <t>Millions d'hab</t>
+  </si>
+  <si>
+    <t>Mrds de FCFA</t>
+  </si>
+  <si>
+    <t>Pourcent</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>Indice</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>$/bbl</t>
+  </si>
+  <si>
+    <t>($/mt)</t>
+  </si>
+  <si>
+    <t>$/troy oz</t>
+  </si>
+  <si>
+    <t>$/mt</t>
+  </si>
+  <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>$/dmtu</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1051,77 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Pourcentage 3" xfId="4" xr:uid="{FBAE6132-293A-4641-8AC1-85FDE68CC34D}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1424,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>8</v>
@@ -1436,7 +1533,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>12</v>
@@ -1445,19 +1542,19 @@
         <v>13</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N1" s="35" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R1" s="35" t="s">
         <v>16</v>
@@ -1951,7 +2048,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>8</v>
@@ -1960,109 +2057,109 @@
         <v>9</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="J1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="U1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="V1" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="W1" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="X1" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="V1" s="77" t="s">
+      <c r="Y1" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="W1" s="77" t="s">
+      <c r="Z1" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="X1" s="77" t="s">
+      <c r="AA1" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" s="77" t="s">
+      <c r="AB1" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC1" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="77" t="s">
+      <c r="AD1" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" s="77" t="s">
+      <c r="AE1" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="77" t="s">
+      <c r="AF1" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ1" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK1" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL1" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM1" s="87" t="s">
         <v>118</v>
-      </c>
-      <c r="AC1" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD1" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE1" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF1" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG1" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH1" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI1" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ1" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK1" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL1" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM1" s="87" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -27390,16 +27487,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -28471,19 +28568,19 @@
         <v>46</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" ht="15" thickBot="1">
@@ -29361,26 +29458,26 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="48.6328125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.26953125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.26953125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="26.7265625" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="13"/>
+    <col min="7" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
         <v>48</v>
       </c>
@@ -29388,22 +29485,19 @@
         <v>49</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>53</v>
       </c>
       <c r="F1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
@@ -29411,18 +29505,19 @@
         <v>44</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
         <v>47</v>
       </c>
@@ -29430,1395 +29525,1667 @@
         <v>45</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1">
       <c r="A4" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="50" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="50"/>
+        <v>109</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>109</v>
+      </c>
       <c r="D5" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" s="51"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1">
+      <c r="F5" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1">
       <c r="A6" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="50"/>
+        <v>110</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E6" s="51"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" s="14" customFormat="1">
+      <c r="F6" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1">
       <c r="A7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50" t="s">
-        <v>117</v>
-      </c>
       <c r="E7" s="51"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+      <c r="F7" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1">
       <c r="A8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="50"/>
+        <v>112</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>112</v>
+      </c>
       <c r="D8" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E8" s="51"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" s="14" customFormat="1">
+      <c r="F8" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1">
       <c r="A9" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="50"/>
+        <v>113</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E9" s="51"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="52" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E10" s="52"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="D11" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E11" s="52"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="52" t="s">
+        <v>1</v>
+      </c>
       <c r="D12" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E12" s="52"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="52" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E13" s="52"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="52"/>
+        <v>54</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E14" s="52"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="52" t="s">
+        <v>8</v>
+      </c>
       <c r="D15" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E15" s="52"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="54" t="s">
+        <v>9</v>
+      </c>
       <c r="D16" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E16" s="52"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="F16" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="54" t="s">
+        <v>11</v>
+      </c>
       <c r="D17" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E17" s="52"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="54" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E18" s="52"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="54" t="s">
+        <v>13</v>
+      </c>
       <c r="D19" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E19" s="52"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F19" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="54" t="s">
+        <v>14</v>
+      </c>
       <c r="D20" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E20" s="52"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="54" t="s">
+        <v>15</v>
+      </c>
       <c r="D22" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E22" s="52"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="54"/>
+        <v>87</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>87</v>
+      </c>
       <c r="D23" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23" s="52"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="54" t="s">
+        <v>16</v>
+      </c>
       <c r="D24" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E24" s="52"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="54" t="s">
+        <v>18</v>
+      </c>
       <c r="D25" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E25" s="52"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="54" t="s">
+        <v>17</v>
+      </c>
       <c r="D26" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="52"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="54" t="s">
+        <v>19</v>
+      </c>
       <c r="D27" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E27" s="52"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="52" t="s">
+        <v>2</v>
+      </c>
       <c r="D28" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E28" s="52"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F28" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="52" t="s">
+        <v>3</v>
+      </c>
       <c r="D29" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E29" s="52"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="F29" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="52" t="s">
+        <v>4</v>
+      </c>
       <c r="D30" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E30" s="52"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F30" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="52" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E31" s="52"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="F31" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="52" t="s">
+        <v>6</v>
+      </c>
       <c r="D32" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E32" s="52"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="F32" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="52" t="s">
+        <v>23</v>
+      </c>
       <c r="D33" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="52" t="s">
         <v>60</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="52" t="s">
-        <v>61</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="D34" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="F34" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="D35" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="F35" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="D36" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="F36" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="D37" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="F37" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="D38" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="F38" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="D39" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="F39" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D40" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="F40" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="D41" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="F41" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="D42" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="F42" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D43" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="F43" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="D44" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="F44" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="D45" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E45" s="51"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="D46" s="53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E46" s="51"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="F46" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="D47" s="53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E47" s="51"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="F47" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D48" s="53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E48" s="51"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="F48" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="D49" s="53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E49" s="51"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="F49" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="17" t="s">
+      <c r="C53" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="F53" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="D54" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E54" s="51"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="F54" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="D55" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E55" s="51"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="F55" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="17"/>
+      <c r="C56" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="D56" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E56" s="51"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="F56" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="51"/>
+      <c r="F57" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="51"/>
+      <c r="F58" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="51"/>
+      <c r="F59" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="51"/>
+      <c r="F60" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="17" t="s">
+      <c r="C61" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="51"/>
+      <c r="F61" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="51"/>
+      <c r="F62" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="17" t="s">
+      <c r="C63" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="51"/>
+      <c r="F63" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="51"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="17" t="s">
+      <c r="C64" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="51"/>
+      <c r="F64" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="51"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="51"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="C65" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="51"/>
+      <c r="F65" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="51"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="17" t="s">
+      <c r="C66" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="51"/>
+      <c r="F66" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E64" s="51"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E65" s="51"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="51"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="D67" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E67" s="51"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="F67" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D68" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E68" s="51"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="F68" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="17"/>
+        <v>88</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="D69" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E69" s="51"/>
       <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B70" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="51"/>
+      <c r="F70" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="51"/>
+      <c r="F71" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="51"/>
+      <c r="F72" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="17" t="s">
+      <c r="C73" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="51"/>
+      <c r="F73" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" s="17" t="s">
+      <c r="C74" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="51"/>
+      <c r="F74" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="17" t="s">
+      <c r="C75" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="51"/>
+      <c r="F75" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" s="17" t="s">
+      <c r="C76" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="51"/>
+      <c r="F76" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="17" t="s">
+      <c r="C77" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="51"/>
+      <c r="F77" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="17" t="s">
+      <c r="C78" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="51"/>
+      <c r="F78" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="51"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" s="17" t="s">
+      <c r="C79" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="51"/>
+      <c r="F79" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="51"/>
+      <c r="F80" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="17" t="s">
+      <c r="C81" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="51"/>
+      <c r="F81" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="17" t="s">
+      <c r="C82" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="51"/>
+      <c r="F82" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E79" s="51"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80" s="51"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="17" t="s">
+      <c r="C83" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="51"/>
+      <c r="F83" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E81" s="51"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="17" t="s">
+      <c r="C84" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="51"/>
+      <c r="F84" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" s="51"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="17" t="s">
+      <c r="C85" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="51"/>
+      <c r="F85" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E83" s="51"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="17" t="s">
+      <c r="C86" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="51"/>
+      <c r="F86" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E84" s="51"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="17" t="s">
+      <c r="C87" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E87" s="51"/>
+      <c r="F87" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" s="51"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E86" s="51"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="17" t="s">
+      <c r="C88" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" s="51"/>
+      <c r="F88" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E87" s="51"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="51"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="52" t="s">
-        <v>111</v>
-      </c>
       <c r="B89" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="D89" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E89" s="51"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="1:7">
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" s="17"/>
+        <v>117</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="D90" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E90" s="51"/>
       <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="1:7">
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="17"/>
+        <v>118</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="D91" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E91" s="51"/>
       <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B4 B10:B61 B63:B79 B81:B88 B92:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B88 B92:B1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B91">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B91">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4 C10:C61 C63:C79 C81:C88">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C9">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
+  <conditionalFormatting sqref="C80">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B88 B92:B1048576">
+  <conditionalFormatting sqref="C4:C88">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B91">
+  <conditionalFormatting sqref="C89:C91">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B91">
+  <conditionalFormatting sqref="C89:C91">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
